--- a/Code/Results/Cases/Case_3_169/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_169/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.023237737944159</v>
+        <v>1.04777558345717</v>
       </c>
       <c r="D2">
-        <v>1.043474110261535</v>
+        <v>1.05671684321732</v>
       </c>
       <c r="E2">
-        <v>1.026245551706106</v>
+        <v>1.045195325001565</v>
       </c>
       <c r="F2">
-        <v>1.049400796671898</v>
+        <v>1.067280212569553</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060090091357081</v>
+        <v>1.050095241103683</v>
       </c>
       <c r="J2">
-        <v>1.044744951463315</v>
+        <v>1.052822855969226</v>
       </c>
       <c r="K2">
-        <v>1.054359269076804</v>
+        <v>1.059453789623616</v>
       </c>
       <c r="L2">
-        <v>1.037350963549664</v>
+        <v>1.047964246794331</v>
       </c>
       <c r="M2">
-        <v>1.060212269262513</v>
+        <v>1.06998849922683</v>
       </c>
       <c r="N2">
-        <v>1.018052809061679</v>
+        <v>1.021365751152969</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.028356616993747</v>
+        <v>1.048830217025427</v>
       </c>
       <c r="D3">
-        <v>1.047627332733739</v>
+        <v>1.057590295161704</v>
       </c>
       <c r="E3">
-        <v>1.030420321181443</v>
+        <v>1.046097723799521</v>
       </c>
       <c r="F3">
-        <v>1.054180528019792</v>
+        <v>1.068313149488422</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062202273352645</v>
+        <v>1.050460131422822</v>
       </c>
       <c r="J3">
-        <v>1.048103007939024</v>
+        <v>1.053525582428084</v>
       </c>
       <c r="K3">
-        <v>1.057685029787407</v>
+        <v>1.060140783526407</v>
       </c>
       <c r="L3">
-        <v>1.040678219261498</v>
+        <v>1.048677799829911</v>
       </c>
       <c r="M3">
-        <v>1.064164096688736</v>
+        <v>1.070836650192822</v>
       </c>
       <c r="N3">
-        <v>1.019233084430307</v>
+        <v>1.021607595383811</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031595514865517</v>
+        <v>1.049512764553604</v>
       </c>
       <c r="D4">
-        <v>1.050257798478308</v>
+        <v>1.05815558199185</v>
       </c>
       <c r="E4">
-        <v>1.033067135791985</v>
+        <v>1.046682038034412</v>
       </c>
       <c r="F4">
-        <v>1.057209997803914</v>
+        <v>1.068981990817296</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063528727377124</v>
+        <v>1.050695045803165</v>
       </c>
       <c r="J4">
-        <v>1.050224136992858</v>
+        <v>1.053979831083095</v>
       </c>
       <c r="K4">
-        <v>1.059785257604757</v>
+        <v>1.060584779143082</v>
       </c>
       <c r="L4">
-        <v>1.042782200736935</v>
+        <v>1.049139285749169</v>
       </c>
       <c r="M4">
-        <v>1.066663705176022</v>
+        <v>1.071385312456849</v>
       </c>
       <c r="N4">
-        <v>1.019977838929358</v>
+        <v>1.021763742538002</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.032940274451712</v>
+        <v>1.049799738520976</v>
       </c>
       <c r="D5">
-        <v>1.051350509656385</v>
+        <v>1.058393253217945</v>
       </c>
       <c r="E5">
-        <v>1.034167288125623</v>
+        <v>1.046927779433316</v>
       </c>
       <c r="F5">
-        <v>1.058468999616418</v>
+        <v>1.069263281921324</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064077020727362</v>
+        <v>1.05079351778988</v>
       </c>
       <c r="J5">
-        <v>1.051103901020724</v>
+        <v>1.05417068628231</v>
       </c>
       <c r="K5">
-        <v>1.060656226071666</v>
+        <v>1.060771306424306</v>
       </c>
       <c r="L5">
-        <v>1.043655403055602</v>
+        <v>1.049333238882636</v>
       </c>
       <c r="M5">
-        <v>1.067701269322372</v>
+        <v>1.07161593426001</v>
       </c>
       <c r="N5">
-        <v>1.020286539578445</v>
+        <v>1.021829304670868</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.033165095384593</v>
+        <v>1.049847924532424</v>
       </c>
       <c r="D6">
-        <v>1.051533224273682</v>
+        <v>1.058433160693217</v>
       </c>
       <c r="E6">
-        <v>1.034351285235856</v>
+        <v>1.046969046092176</v>
       </c>
       <c r="F6">
-        <v>1.058679552310972</v>
+        <v>1.069310518386261</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064168541631387</v>
+        <v>1.050810034892885</v>
       </c>
       <c r="J6">
-        <v>1.051250928141604</v>
+        <v>1.054202725197636</v>
       </c>
       <c r="K6">
-        <v>1.060801775653081</v>
+        <v>1.060802617632844</v>
       </c>
       <c r="L6">
-        <v>1.043801365854499</v>
+        <v>1.049365801200076</v>
       </c>
       <c r="M6">
-        <v>1.067874716469194</v>
+        <v>1.071654654565323</v>
       </c>
       <c r="N6">
-        <v>1.02033811818364</v>
+        <v>1.021840308019508</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031613549024212</v>
+        <v>1.049516598991926</v>
       </c>
       <c r="D7">
-        <v>1.050272450318325</v>
+        <v>1.058158757670196</v>
       </c>
       <c r="E7">
-        <v>1.033081884839134</v>
+        <v>1.046685321267636</v>
       </c>
       <c r="F7">
-        <v>1.05722687722636</v>
+        <v>1.068985749010255</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063536090054809</v>
+        <v>1.050696362714723</v>
       </c>
       <c r="J7">
-        <v>1.050235938876769</v>
+        <v>1.05398238173581</v>
       </c>
       <c r="K7">
-        <v>1.059796942005954</v>
+        <v>1.060587272034943</v>
       </c>
       <c r="L7">
-        <v>1.042793912424458</v>
+        <v>1.049141877579112</v>
       </c>
       <c r="M7">
-        <v>1.06667762067441</v>
+        <v>1.071388394177822</v>
       </c>
       <c r="N7">
-        <v>1.019981980881506</v>
+        <v>1.021764618905394</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024983304046924</v>
+        <v>1.048131975129475</v>
       </c>
       <c r="D8">
-        <v>1.044889810170241</v>
+        <v>1.057012008347463</v>
       </c>
       <c r="E8">
-        <v>1.027668030222988</v>
+        <v>1.045500211381033</v>
       </c>
       <c r="F8">
-        <v>1.051029599967537</v>
+        <v>1.067629202514624</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060812432510742</v>
+        <v>1.050218804636236</v>
       </c>
       <c r="J8">
-        <v>1.045890807243896</v>
+        <v>1.053060441250762</v>
       </c>
       <c r="K8">
-        <v>1.055494206264033</v>
+        <v>1.059686073098632</v>
       </c>
       <c r="L8">
-        <v>1.038485822068348</v>
+        <v>1.048205442928615</v>
       </c>
       <c r="M8">
-        <v>1.06156001574012</v>
+        <v>1.070275166275649</v>
       </c>
       <c r="N8">
-        <v>1.018455705210226</v>
+        <v>1.021447554285295</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012705052376109</v>
+        <v>1.045693075589593</v>
       </c>
       <c r="D9">
-        <v>1.034944994708667</v>
+        <v>1.054992115514987</v>
       </c>
       <c r="E9">
-        <v>1.017687033738611</v>
+        <v>1.043414996615316</v>
       </c>
       <c r="F9">
-        <v>1.039596582116938</v>
+        <v>1.065242351024981</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055690559639831</v>
+        <v>1.049368148127516</v>
       </c>
       <c r="J9">
-        <v>1.037817003992434</v>
+        <v>1.051432333870454</v>
       </c>
       <c r="K9">
-        <v>1.047495460572129</v>
+        <v>1.058093958316345</v>
       </c>
       <c r="L9">
-        <v>1.030499523905723</v>
+        <v>1.046553573948524</v>
       </c>
       <c r="M9">
-        <v>1.052078313924205</v>
+        <v>1.068312397216843</v>
       </c>
       <c r="N9">
-        <v>1.015614005075292</v>
+        <v>1.020886233510831</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004069815151663</v>
+        <v>1.044067796017854</v>
       </c>
       <c r="D10">
-        <v>1.027970234353117</v>
+        <v>1.053646102804613</v>
       </c>
       <c r="E10">
-        <v>1.010701406651205</v>
+        <v>1.042026966104038</v>
       </c>
       <c r="F10">
-        <v>1.031588586773652</v>
+        <v>1.063653529656857</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052038104686579</v>
+        <v>1.048794907777611</v>
       </c>
       <c r="J10">
-        <v>1.032122886312238</v>
+        <v>1.050344567606856</v>
       </c>
       <c r="K10">
-        <v>1.04185219711381</v>
+        <v>1.057029816428239</v>
       </c>
       <c r="L10">
-        <v>1.02488009518001</v>
+        <v>1.045451168346709</v>
       </c>
       <c r="M10">
-        <v>1.045409997962731</v>
+        <v>1.067003150273303</v>
       </c>
       <c r="N10">
-        <v>1.013606720017746</v>
+        <v>1.020510274334558</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000211755072225</v>
+        <v>1.043364184192717</v>
       </c>
       <c r="D11">
-        <v>1.024859547644028</v>
+        <v>1.053063407652107</v>
       </c>
       <c r="E11">
-        <v>1.007589307723515</v>
+        <v>1.041426439961358</v>
       </c>
       <c r="F11">
-        <v>1.028019361849499</v>
+        <v>1.062966128538798</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050394955890053</v>
+        <v>1.048545234234015</v>
       </c>
       <c r="J11">
-        <v>1.029575727438427</v>
+        <v>1.049872994668029</v>
       </c>
       <c r="K11">
-        <v>1.039327398402529</v>
+        <v>1.056568385958126</v>
       </c>
       <c r="L11">
-        <v>1.022369506116931</v>
+        <v>1.044973542688881</v>
       </c>
       <c r="M11">
-        <v>1.042431536274724</v>
+        <v>1.066436060873909</v>
       </c>
       <c r="N11">
-        <v>1.012708211608484</v>
+        <v>1.020347068022708</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9987596880505847</v>
+        <v>1.043102852857599</v>
       </c>
       <c r="D12">
-        <v>1.023689680597572</v>
+        <v>1.052846989669472</v>
       </c>
       <c r="E12">
-        <v>1.006419424973916</v>
+        <v>1.041203453316935</v>
       </c>
       <c r="F12">
-        <v>1.026677370441788</v>
+        <v>1.062710882853301</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049774878810178</v>
+        <v>1.048452275542818</v>
       </c>
       <c r="J12">
-        <v>1.028616633023509</v>
+        <v>1.049697746971489</v>
       </c>
       <c r="K12">
-        <v>1.038376674541406</v>
+        <v>1.056396892613601</v>
       </c>
       <c r="L12">
-        <v>1.021424663746064</v>
+        <v>1.044796089851824</v>
       </c>
       <c r="M12">
-        <v>1.041310719980706</v>
+        <v>1.066225392214782</v>
       </c>
       <c r="N12">
-        <v>1.012369817854883</v>
+        <v>1.020286383948305</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9990720410382098</v>
+        <v>1.043158908352185</v>
       </c>
       <c r="D13">
-        <v>1.023941287317584</v>
+        <v>1.052893411108544</v>
       </c>
       <c r="E13">
-        <v>1.006671011795563</v>
+        <v>1.041251281286798</v>
       </c>
       <c r="F13">
-        <v>1.026965982191403</v>
+        <v>1.062765630038004</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049908336298684</v>
+        <v>1.048472225399201</v>
       </c>
       <c r="J13">
-        <v>1.02882296083238</v>
+        <v>1.049735342020422</v>
       </c>
       <c r="K13">
-        <v>1.038581203658005</v>
+        <v>1.05643368292909</v>
       </c>
       <c r="L13">
-        <v>1.021627903633924</v>
+        <v>1.044834155958376</v>
       </c>
       <c r="M13">
-        <v>1.041551807911009</v>
+        <v>1.06627058254965</v>
       </c>
       <c r="N13">
-        <v>1.01244261884194</v>
+        <v>1.020299403690866</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000092121526282</v>
+        <v>1.043342582027992</v>
       </c>
       <c r="D14">
-        <v>1.024763145148729</v>
+        <v>1.053045518045074</v>
       </c>
       <c r="E14">
-        <v>1.007492893463772</v>
+        <v>1.041408006273495</v>
       </c>
       <c r="F14">
-        <v>1.027908769061691</v>
+        <v>1.062945028101424</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050343901710705</v>
+        <v>1.048537554703284</v>
       </c>
       <c r="J14">
-        <v>1.029496717218156</v>
+        <v>1.049858510362338</v>
       </c>
       <c r="K14">
-        <v>1.039249078683489</v>
+        <v>1.056554212253421</v>
       </c>
       <c r="L14">
-        <v>1.022291660138539</v>
+        <v>1.044958875225552</v>
       </c>
       <c r="M14">
-        <v>1.042339189585749</v>
+        <v>1.066418647474575</v>
       </c>
       <c r="N14">
-        <v>1.012680336141052</v>
+        <v>1.020342053121809</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000718071812288</v>
+        <v>1.043455752270213</v>
       </c>
       <c r="D15">
-        <v>1.025267582769034</v>
+        <v>1.053139238933489</v>
       </c>
       <c r="E15">
-        <v>1.007997413641928</v>
+        <v>1.041504579725793</v>
       </c>
       <c r="F15">
-        <v>1.028487472122075</v>
+        <v>1.06305557253102</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050610962426777</v>
+        <v>1.048577777248811</v>
       </c>
       <c r="J15">
-        <v>1.029910100369364</v>
+        <v>1.049934387246546</v>
       </c>
       <c r="K15">
-        <v>1.039658847187043</v>
+        <v>1.056628461429447</v>
       </c>
       <c r="L15">
-        <v>1.022698971639409</v>
+        <v>1.045035713401584</v>
       </c>
       <c r="M15">
-        <v>1.042822377097959</v>
+        <v>1.066509871667304</v>
       </c>
       <c r="N15">
-        <v>1.01282617825423</v>
+        <v>1.02036832263466</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C16">
-        <v>1.004323260518892</v>
+        <v>1.044114495441213</v>
       </c>
       <c r="D16">
-        <v>1.028174704287986</v>
+        <v>1.053684777281788</v>
       </c>
       <c r="E16">
-        <v>1.010906040869134</v>
+        <v>1.042066831615407</v>
       </c>
       <c r="F16">
-        <v>1.031823242872643</v>
+        <v>1.063699162211411</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052145816698661</v>
+        <v>1.048811447100211</v>
       </c>
       <c r="J16">
-        <v>1.032290154861268</v>
+        <v>1.05037585249449</v>
       </c>
       <c r="K16">
-        <v>1.042017990011532</v>
+        <v>1.057060426365277</v>
       </c>
       <c r="L16">
-        <v>1.025045028563388</v>
+        <v>1.045482860972808</v>
       </c>
       <c r="M16">
-        <v>1.0456056832781</v>
+        <v>1.067040782417069</v>
       </c>
       <c r="N16">
-        <v>1.013665712865227</v>
+        <v>1.020521097099896</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00655207795263</v>
+        <v>1.044527746186949</v>
       </c>
       <c r="D17">
-        <v>1.029973462974948</v>
+        <v>1.054027016044474</v>
       </c>
       <c r="E17">
-        <v>1.01270663529321</v>
+        <v>1.042419651543322</v>
       </c>
       <c r="F17">
-        <v>1.033887811270516</v>
+        <v>1.064103021503173</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053091766602489</v>
+        <v>1.048957632048421</v>
       </c>
       <c r="J17">
-        <v>1.033760777255202</v>
+        <v>1.050652621306975</v>
       </c>
       <c r="K17">
-        <v>1.043475595481288</v>
+        <v>1.0573312126251</v>
       </c>
       <c r="L17">
-        <v>1.026495479805495</v>
+        <v>1.045763270860348</v>
       </c>
       <c r="M17">
-        <v>1.047326655396931</v>
+        <v>1.067373761473611</v>
       </c>
       <c r="N17">
-        <v>1.01418431213333</v>
+        <v>1.020616817877662</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007840714825878</v>
+        <v>1.044768802364759</v>
       </c>
       <c r="D18">
-        <v>1.031013968002807</v>
+        <v>1.054226651343833</v>
       </c>
       <c r="E18">
-        <v>1.013748527800682</v>
+        <v>1.042625493679326</v>
       </c>
       <c r="F18">
-        <v>1.035082292941067</v>
+        <v>1.064338640683376</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053637613067109</v>
+        <v>1.049042758703875</v>
       </c>
       <c r="J18">
-        <v>1.034610747223162</v>
+        <v>1.050814001549689</v>
       </c>
       <c r="K18">
-        <v>1.044318004686428</v>
+        <v>1.057489094943477</v>
       </c>
       <c r="L18">
-        <v>1.027334089935454</v>
+        <v>1.045926802488479</v>
       </c>
       <c r="M18">
-        <v>1.048321743270235</v>
+        <v>1.067567965451037</v>
       </c>
       <c r="N18">
-        <v>1.014483988520892</v>
+        <v>1.020672610280872</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008278207132995</v>
+        <v>1.044850998678979</v>
       </c>
       <c r="D19">
-        <v>1.031367304606382</v>
+        <v>1.054294724054256</v>
       </c>
       <c r="E19">
-        <v>1.01410239081261</v>
+        <v>1.042695688700193</v>
       </c>
       <c r="F19">
-        <v>1.03548795459956</v>
+        <v>1.064418990038556</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053822744165193</v>
+        <v>1.04907176085263</v>
       </c>
       <c r="J19">
-        <v>1.034899259434068</v>
+        <v>1.050869018825799</v>
       </c>
       <c r="K19">
-        <v>1.044603943864197</v>
+        <v>1.057542918090591</v>
       </c>
       <c r="L19">
-        <v>1.027618796585967</v>
+        <v>1.045982558010888</v>
       </c>
       <c r="M19">
-        <v>1.0486595858692</v>
+        <v>1.067634181087971</v>
       </c>
       <c r="N19">
-        <v>1.0145857001247</v>
+        <v>1.020691627275347</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006314133488431</v>
+        <v>1.044483406846256</v>
       </c>
       <c r="D20">
-        <v>1.029781376722327</v>
+        <v>1.053990295694397</v>
       </c>
       <c r="E20">
-        <v>1.012514319224962</v>
+        <v>1.042381792311682</v>
       </c>
       <c r="F20">
-        <v>1.033667317278359</v>
+        <v>1.064059685544326</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052990889802081</v>
+        <v>1.048941962324595</v>
       </c>
       <c r="J20">
-        <v>1.033603807127265</v>
+        <v>1.050622932251016</v>
       </c>
       <c r="K20">
-        <v>1.043320018561916</v>
+        <v>1.057302166309078</v>
       </c>
       <c r="L20">
-        <v>1.026340631663364</v>
+        <v>1.045733188295096</v>
       </c>
       <c r="M20">
-        <v>1.047142919572179</v>
+        <v>1.067338037736787</v>
       </c>
       <c r="N20">
-        <v>1.014128964054523</v>
+        <v>1.020606552070823</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9997922677039369</v>
+        <v>1.043288494119787</v>
       </c>
       <c r="D21">
-        <v>1.024521533399605</v>
+        <v>1.053000725762739</v>
       </c>
       <c r="E21">
-        <v>1.007251260528864</v>
+        <v>1.041361852584103</v>
       </c>
       <c r="F21">
-        <v>1.027631597581109</v>
+        <v>1.062892197475811</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050215911447365</v>
+        <v>1.048518322891776</v>
       </c>
       <c r="J21">
-        <v>1.029298676687681</v>
+        <v>1.049822242687863</v>
       </c>
       <c r="K21">
-        <v>1.039052768154013</v>
+        <v>1.05651872206254</v>
       </c>
       <c r="L21">
-        <v>1.022096545592736</v>
+        <v>1.044922149651357</v>
       </c>
       <c r="M21">
-        <v>1.0421077319033</v>
+        <v>1.066375046772255</v>
       </c>
       <c r="N21">
-        <v>1.012610464642387</v>
+        <v>1.020329495637312</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9955810800733986</v>
+        <v>1.042537328850169</v>
       </c>
       <c r="D22">
-        <v>1.021130583708111</v>
+        <v>1.052378665192829</v>
       </c>
       <c r="E22">
-        <v>1.00386124119693</v>
+        <v>1.040721013009401</v>
       </c>
       <c r="F22">
-        <v>1.023742321157812</v>
+        <v>1.062158647306273</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048414561065981</v>
+        <v>1.048250697955976</v>
       </c>
       <c r="J22">
-        <v>1.026516456654471</v>
+        <v>1.049318328465843</v>
       </c>
       <c r="K22">
-        <v>1.036294748792937</v>
+        <v>1.056025575401216</v>
       </c>
       <c r="L22">
-        <v>1.019356592271758</v>
+        <v>1.044411978019499</v>
       </c>
       <c r="M22">
-        <v>1.038857668212973</v>
+        <v>1.065769423432875</v>
       </c>
       <c r="N22">
-        <v>1.011628700421403</v>
+        <v>1.020154940714746</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9978244032193595</v>
+        <v>1.042935524155165</v>
       </c>
       <c r="D23">
-        <v>1.022936429431217</v>
+        <v>1.052708419662497</v>
       </c>
       <c r="E23">
-        <v>1.005666308868932</v>
+        <v>1.041060692652194</v>
       </c>
       <c r="F23">
-        <v>1.025813380704826</v>
+        <v>1.062547469053389</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049375028360381</v>
+        <v>1.04839269099031</v>
       </c>
       <c r="J23">
-        <v>1.027998765349865</v>
+        <v>1.049585509249039</v>
       </c>
       <c r="K23">
-        <v>1.037764186828986</v>
+        <v>1.056287055208512</v>
       </c>
       <c r="L23">
-        <v>1.020816114433365</v>
+        <v>1.044682452291142</v>
       </c>
       <c r="M23">
-        <v>1.040588859788103</v>
+        <v>1.066090490243805</v>
       </c>
       <c r="N23">
-        <v>1.012151798863131</v>
+        <v>1.020247509520577</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00642168547847</v>
+        <v>1.044503441842266</v>
       </c>
       <c r="D24">
-        <v>1.029868198997433</v>
+        <v>1.054006887999082</v>
       </c>
       <c r="E24">
-        <v>1.012601244366165</v>
+        <v>1.042398899119718</v>
       </c>
       <c r="F24">
-        <v>1.033766979071916</v>
+        <v>1.064079267029066</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053036489914527</v>
+        <v>1.048949043232509</v>
       </c>
       <c r="J24">
-        <v>1.033674759282793</v>
+        <v>1.050636347625209</v>
       </c>
       <c r="K24">
-        <v>1.043390341089264</v>
+        <v>1.057315291282733</v>
       </c>
       <c r="L24">
-        <v>1.026410623733745</v>
+        <v>1.045746781393918</v>
       </c>
       <c r="M24">
-        <v>1.047225968789584</v>
+        <v>1.067354179808409</v>
       </c>
       <c r="N24">
-        <v>1.014153982146801</v>
+        <v>1.020611190870339</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015954670405233</v>
+        <v>1.046323473791962</v>
       </c>
       <c r="D25">
-        <v>1.037573984764982</v>
+        <v>1.055514205546683</v>
       </c>
       <c r="E25">
-        <v>1.020323088354407</v>
+        <v>1.043953704310738</v>
       </c>
       <c r="F25">
-        <v>1.042617112252189</v>
+        <v>1.065858985633248</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057054973397813</v>
+        <v>1.049589145329922</v>
       </c>
       <c r="J25">
-        <v>1.039956772992805</v>
+        <v>1.051853655765146</v>
       </c>
       <c r="K25">
-        <v>1.049615727314419</v>
+        <v>1.058506040859164</v>
       </c>
       <c r="L25">
-        <v>1.032613898627931</v>
+        <v>1.046980827385799</v>
       </c>
       <c r="M25">
-        <v>1.054588008036425</v>
+        <v>1.068819950824411</v>
       </c>
       <c r="N25">
-        <v>1.016367722366663</v>
+        <v>1.021031656826332</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_169/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_169/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04777558345717</v>
+        <v>1.023237737944159</v>
       </c>
       <c r="D2">
-        <v>1.05671684321732</v>
+        <v>1.043474110261535</v>
       </c>
       <c r="E2">
-        <v>1.045195325001565</v>
+        <v>1.026245551706106</v>
       </c>
       <c r="F2">
-        <v>1.067280212569553</v>
+        <v>1.049400796671898</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050095241103683</v>
+        <v>1.060090091357081</v>
       </c>
       <c r="J2">
-        <v>1.052822855969226</v>
+        <v>1.044744951463315</v>
       </c>
       <c r="K2">
-        <v>1.059453789623616</v>
+        <v>1.054359269076805</v>
       </c>
       <c r="L2">
-        <v>1.047964246794331</v>
+        <v>1.037350963549663</v>
       </c>
       <c r="M2">
-        <v>1.06998849922683</v>
+        <v>1.060212269262514</v>
       </c>
       <c r="N2">
-        <v>1.021365751152969</v>
+        <v>1.018052809061679</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048830217025427</v>
+        <v>1.028356616993748</v>
       </c>
       <c r="D3">
-        <v>1.057590295161704</v>
+        <v>1.04762733273374</v>
       </c>
       <c r="E3">
-        <v>1.046097723799521</v>
+        <v>1.030420321181444</v>
       </c>
       <c r="F3">
-        <v>1.068313149488422</v>
+        <v>1.054180528019792</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050460131422822</v>
+        <v>1.062202273352646</v>
       </c>
       <c r="J3">
-        <v>1.053525582428084</v>
+        <v>1.048103007939025</v>
       </c>
       <c r="K3">
-        <v>1.060140783526407</v>
+        <v>1.057685029787408</v>
       </c>
       <c r="L3">
-        <v>1.048677799829911</v>
+        <v>1.040678219261499</v>
       </c>
       <c r="M3">
-        <v>1.070836650192822</v>
+        <v>1.064164096688737</v>
       </c>
       <c r="N3">
-        <v>1.021607595383811</v>
+        <v>1.019233084430307</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049512764553604</v>
+        <v>1.031595514865518</v>
       </c>
       <c r="D4">
-        <v>1.05815558199185</v>
+        <v>1.050257798478308</v>
       </c>
       <c r="E4">
-        <v>1.046682038034412</v>
+        <v>1.033067135791985</v>
       </c>
       <c r="F4">
-        <v>1.068981990817296</v>
+        <v>1.057209997803914</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050695045803165</v>
+        <v>1.063528727377125</v>
       </c>
       <c r="J4">
-        <v>1.053979831083095</v>
+        <v>1.050224136992858</v>
       </c>
       <c r="K4">
-        <v>1.060584779143082</v>
+        <v>1.059785257604757</v>
       </c>
       <c r="L4">
-        <v>1.049139285749169</v>
+        <v>1.042782200736935</v>
       </c>
       <c r="M4">
-        <v>1.071385312456849</v>
+        <v>1.066663705176023</v>
       </c>
       <c r="N4">
-        <v>1.021763742538002</v>
+        <v>1.019977838929358</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049799738520976</v>
+        <v>1.032940274451712</v>
       </c>
       <c r="D5">
-        <v>1.058393253217945</v>
+        <v>1.051350509656385</v>
       </c>
       <c r="E5">
-        <v>1.046927779433316</v>
+        <v>1.034167288125623</v>
       </c>
       <c r="F5">
-        <v>1.069263281921324</v>
+        <v>1.058468999616418</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05079351778988</v>
+        <v>1.064077020727362</v>
       </c>
       <c r="J5">
-        <v>1.05417068628231</v>
+        <v>1.051103901020724</v>
       </c>
       <c r="K5">
-        <v>1.060771306424306</v>
+        <v>1.060656226071665</v>
       </c>
       <c r="L5">
-        <v>1.049333238882636</v>
+        <v>1.043655403055602</v>
       </c>
       <c r="M5">
-        <v>1.07161593426001</v>
+        <v>1.067701269322372</v>
       </c>
       <c r="N5">
-        <v>1.021829304670868</v>
+        <v>1.020286539578445</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049847924532424</v>
+        <v>1.033165095384592</v>
       </c>
       <c r="D6">
-        <v>1.058433160693217</v>
+        <v>1.051533224273681</v>
       </c>
       <c r="E6">
-        <v>1.046969046092176</v>
+        <v>1.034351285235855</v>
       </c>
       <c r="F6">
-        <v>1.069310518386261</v>
+        <v>1.058679552310971</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050810034892885</v>
+        <v>1.064168541631386</v>
       </c>
       <c r="J6">
-        <v>1.054202725197636</v>
+        <v>1.051250928141604</v>
       </c>
       <c r="K6">
-        <v>1.060802617632844</v>
+        <v>1.06080177565308</v>
       </c>
       <c r="L6">
-        <v>1.049365801200076</v>
+        <v>1.043801365854498</v>
       </c>
       <c r="M6">
-        <v>1.071654654565323</v>
+        <v>1.067874716469194</v>
       </c>
       <c r="N6">
-        <v>1.021840308019508</v>
+        <v>1.02033811818364</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049516598991926</v>
+        <v>1.031613549024213</v>
       </c>
       <c r="D7">
-        <v>1.058158757670196</v>
+        <v>1.050272450318326</v>
       </c>
       <c r="E7">
-        <v>1.046685321267636</v>
+        <v>1.033081884839135</v>
       </c>
       <c r="F7">
-        <v>1.068985749010255</v>
+        <v>1.057226877226361</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050696362714723</v>
+        <v>1.063536090054809</v>
       </c>
       <c r="J7">
-        <v>1.05398238173581</v>
+        <v>1.05023593887677</v>
       </c>
       <c r="K7">
-        <v>1.060587272034943</v>
+        <v>1.059796942005955</v>
       </c>
       <c r="L7">
-        <v>1.049141877579112</v>
+        <v>1.042793912424459</v>
       </c>
       <c r="M7">
-        <v>1.071388394177822</v>
+        <v>1.066677620674411</v>
       </c>
       <c r="N7">
-        <v>1.021764618905394</v>
+        <v>1.019981980881507</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048131975129475</v>
+        <v>1.024983304046925</v>
       </c>
       <c r="D8">
-        <v>1.057012008347463</v>
+        <v>1.044889810170242</v>
       </c>
       <c r="E8">
-        <v>1.045500211381033</v>
+        <v>1.027668030222989</v>
       </c>
       <c r="F8">
-        <v>1.067629202514624</v>
+        <v>1.051029599967538</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050218804636236</v>
+        <v>1.060812432510743</v>
       </c>
       <c r="J8">
-        <v>1.053060441250762</v>
+        <v>1.045890807243897</v>
       </c>
       <c r="K8">
-        <v>1.059686073098632</v>
+        <v>1.055494206264034</v>
       </c>
       <c r="L8">
-        <v>1.048205442928615</v>
+        <v>1.038485822068349</v>
       </c>
       <c r="M8">
-        <v>1.070275166275649</v>
+        <v>1.061560015740121</v>
       </c>
       <c r="N8">
-        <v>1.021447554285295</v>
+        <v>1.018455705210227</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045693075589593</v>
+        <v>1.012705052376109</v>
       </c>
       <c r="D9">
-        <v>1.054992115514987</v>
+        <v>1.034944994708667</v>
       </c>
       <c r="E9">
-        <v>1.043414996615316</v>
+        <v>1.01768703373861</v>
       </c>
       <c r="F9">
-        <v>1.065242351024981</v>
+        <v>1.039596582116937</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049368148127516</v>
+        <v>1.055690559639831</v>
       </c>
       <c r="J9">
-        <v>1.051432333870454</v>
+        <v>1.037817003992434</v>
       </c>
       <c r="K9">
-        <v>1.058093958316345</v>
+        <v>1.047495460572129</v>
       </c>
       <c r="L9">
-        <v>1.046553573948524</v>
+        <v>1.030499523905723</v>
       </c>
       <c r="M9">
-        <v>1.068312397216843</v>
+        <v>1.052078313924204</v>
       </c>
       <c r="N9">
-        <v>1.020886233510831</v>
+        <v>1.015614005075292</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044067796017854</v>
+        <v>1.004069815151663</v>
       </c>
       <c r="D10">
-        <v>1.053646102804613</v>
+        <v>1.027970234353116</v>
       </c>
       <c r="E10">
-        <v>1.042026966104038</v>
+        <v>1.010701406651204</v>
       </c>
       <c r="F10">
-        <v>1.063653529656857</v>
+        <v>1.031588586773651</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048794907777611</v>
+        <v>1.052038104686578</v>
       </c>
       <c r="J10">
-        <v>1.050344567606856</v>
+        <v>1.032122886312236</v>
       </c>
       <c r="K10">
-        <v>1.057029816428239</v>
+        <v>1.04185219711381</v>
       </c>
       <c r="L10">
-        <v>1.045451168346709</v>
+        <v>1.024880095180009</v>
       </c>
       <c r="M10">
-        <v>1.067003150273303</v>
+        <v>1.04540999796273</v>
       </c>
       <c r="N10">
-        <v>1.020510274334558</v>
+        <v>1.013606720017746</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043364184192717</v>
+        <v>1.000211755072224</v>
       </c>
       <c r="D11">
-        <v>1.053063407652107</v>
+        <v>1.024859547644027</v>
       </c>
       <c r="E11">
-        <v>1.041426439961358</v>
+        <v>1.007589307723514</v>
       </c>
       <c r="F11">
-        <v>1.062966128538798</v>
+        <v>1.028019361849498</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048545234234015</v>
+        <v>1.050394955890052</v>
       </c>
       <c r="J11">
-        <v>1.049872994668029</v>
+        <v>1.029575727438426</v>
       </c>
       <c r="K11">
-        <v>1.056568385958126</v>
+        <v>1.039327398402527</v>
       </c>
       <c r="L11">
-        <v>1.044973542688881</v>
+        <v>1.02236950611693</v>
       </c>
       <c r="M11">
-        <v>1.066436060873909</v>
+        <v>1.042431536274723</v>
       </c>
       <c r="N11">
-        <v>1.020347068022708</v>
+        <v>1.012708211608483</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043102852857599</v>
+        <v>0.998759688050585</v>
       </c>
       <c r="D12">
-        <v>1.052846989669472</v>
+        <v>1.023689680597572</v>
       </c>
       <c r="E12">
-        <v>1.041203453316935</v>
+        <v>1.006419424973917</v>
       </c>
       <c r="F12">
-        <v>1.062710882853301</v>
+        <v>1.026677370441788</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048452275542818</v>
+        <v>1.049774878810178</v>
       </c>
       <c r="J12">
-        <v>1.049697746971489</v>
+        <v>1.028616633023509</v>
       </c>
       <c r="K12">
-        <v>1.056396892613601</v>
+        <v>1.038376674541405</v>
       </c>
       <c r="L12">
-        <v>1.044796089851824</v>
+        <v>1.021424663746064</v>
       </c>
       <c r="M12">
-        <v>1.066225392214782</v>
+        <v>1.041310719980707</v>
       </c>
       <c r="N12">
-        <v>1.020286383948305</v>
+        <v>1.012369817854883</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043158908352185</v>
+        <v>0.9990720410382087</v>
       </c>
       <c r="D13">
-        <v>1.052893411108544</v>
+        <v>1.023941287317583</v>
       </c>
       <c r="E13">
-        <v>1.041251281286798</v>
+        <v>1.006671011795562</v>
       </c>
       <c r="F13">
-        <v>1.062765630038004</v>
+        <v>1.026965982191402</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048472225399201</v>
+        <v>1.049908336298684</v>
       </c>
       <c r="J13">
-        <v>1.049735342020422</v>
+        <v>1.028822960832378</v>
       </c>
       <c r="K13">
-        <v>1.05643368292909</v>
+        <v>1.038581203658004</v>
       </c>
       <c r="L13">
-        <v>1.044834155958376</v>
+        <v>1.021627903633922</v>
       </c>
       <c r="M13">
-        <v>1.06627058254965</v>
+        <v>1.041551807911009</v>
       </c>
       <c r="N13">
-        <v>1.020299403690866</v>
+        <v>1.01244261884194</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043342582027992</v>
+        <v>1.000092121526285</v>
       </c>
       <c r="D14">
-        <v>1.053045518045074</v>
+        <v>1.024763145148731</v>
       </c>
       <c r="E14">
-        <v>1.041408006273495</v>
+        <v>1.007492893463774</v>
       </c>
       <c r="F14">
-        <v>1.062945028101424</v>
+        <v>1.027908769061693</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048537554703284</v>
+        <v>1.050343901710706</v>
       </c>
       <c r="J14">
-        <v>1.049858510362338</v>
+        <v>1.029496717218159</v>
       </c>
       <c r="K14">
-        <v>1.056554212253421</v>
+        <v>1.039249078683491</v>
       </c>
       <c r="L14">
-        <v>1.044958875225552</v>
+        <v>1.022291660138542</v>
       </c>
       <c r="M14">
-        <v>1.066418647474575</v>
+        <v>1.042339189585751</v>
       </c>
       <c r="N14">
-        <v>1.020342053121809</v>
+        <v>1.012680336141053</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043455752270213</v>
+        <v>1.000718071812288</v>
       </c>
       <c r="D15">
-        <v>1.053139238933489</v>
+        <v>1.025267582769034</v>
       </c>
       <c r="E15">
-        <v>1.041504579725793</v>
+        <v>1.007997413641927</v>
       </c>
       <c r="F15">
-        <v>1.06305557253102</v>
+        <v>1.028487472122074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048577777248811</v>
+        <v>1.050610962426777</v>
       </c>
       <c r="J15">
-        <v>1.049934387246546</v>
+        <v>1.029910100369364</v>
       </c>
       <c r="K15">
-        <v>1.056628461429447</v>
+        <v>1.039658847187042</v>
       </c>
       <c r="L15">
-        <v>1.045035713401584</v>
+        <v>1.022698971639409</v>
       </c>
       <c r="M15">
-        <v>1.066509871667304</v>
+        <v>1.042822377097958</v>
       </c>
       <c r="N15">
-        <v>1.02036832263466</v>
+        <v>1.01282617825423</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044114495441213</v>
+        <v>1.004323260518891</v>
       </c>
       <c r="D16">
-        <v>1.053684777281788</v>
+        <v>1.028174704287985</v>
       </c>
       <c r="E16">
-        <v>1.042066831615407</v>
+        <v>1.010906040869133</v>
       </c>
       <c r="F16">
-        <v>1.063699162211411</v>
+        <v>1.031823242872641</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048811447100211</v>
+        <v>1.052145816698661</v>
       </c>
       <c r="J16">
-        <v>1.05037585249449</v>
+        <v>1.032290154861266</v>
       </c>
       <c r="K16">
-        <v>1.057060426365277</v>
+        <v>1.042017990011531</v>
       </c>
       <c r="L16">
-        <v>1.045482860972808</v>
+        <v>1.025045028563387</v>
       </c>
       <c r="M16">
-        <v>1.067040782417069</v>
+        <v>1.045605683278099</v>
       </c>
       <c r="N16">
-        <v>1.020521097099896</v>
+        <v>1.013665712865227</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044527746186949</v>
+        <v>1.00655207795263</v>
       </c>
       <c r="D17">
-        <v>1.054027016044474</v>
+        <v>1.029973462974948</v>
       </c>
       <c r="E17">
-        <v>1.042419651543322</v>
+        <v>1.012706635293209</v>
       </c>
       <c r="F17">
-        <v>1.064103021503173</v>
+        <v>1.033887811270515</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048957632048421</v>
+        <v>1.053091766602489</v>
       </c>
       <c r="J17">
-        <v>1.050652621306975</v>
+        <v>1.033760777255201</v>
       </c>
       <c r="K17">
-        <v>1.0573312126251</v>
+        <v>1.043475595481288</v>
       </c>
       <c r="L17">
-        <v>1.045763270860348</v>
+        <v>1.026495479805494</v>
       </c>
       <c r="M17">
-        <v>1.067373761473611</v>
+        <v>1.04732665539693</v>
       </c>
       <c r="N17">
-        <v>1.020616817877662</v>
+        <v>1.01418431213333</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044768802364759</v>
+        <v>1.007840714825876</v>
       </c>
       <c r="D18">
-        <v>1.054226651343833</v>
+        <v>1.031013968002806</v>
       </c>
       <c r="E18">
-        <v>1.042625493679326</v>
+        <v>1.01374852780068</v>
       </c>
       <c r="F18">
-        <v>1.064338640683376</v>
+        <v>1.035082292941066</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049042758703875</v>
+        <v>1.053637613067108</v>
       </c>
       <c r="J18">
-        <v>1.050814001549689</v>
+        <v>1.034610747223161</v>
       </c>
       <c r="K18">
-        <v>1.057489094943477</v>
+        <v>1.044318004686427</v>
       </c>
       <c r="L18">
-        <v>1.045926802488479</v>
+        <v>1.027334089935453</v>
       </c>
       <c r="M18">
-        <v>1.067567965451037</v>
+        <v>1.048321743270234</v>
       </c>
       <c r="N18">
-        <v>1.020672610280872</v>
+        <v>1.014483988520892</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044850998678979</v>
+        <v>1.008278207132996</v>
       </c>
       <c r="D19">
-        <v>1.054294724054256</v>
+        <v>1.031367304606383</v>
       </c>
       <c r="E19">
-        <v>1.042695688700193</v>
+        <v>1.014102390812611</v>
       </c>
       <c r="F19">
-        <v>1.064418990038556</v>
+        <v>1.035487954599561</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04907176085263</v>
+        <v>1.053822744165194</v>
       </c>
       <c r="J19">
-        <v>1.050869018825799</v>
+        <v>1.03489925943407</v>
       </c>
       <c r="K19">
-        <v>1.057542918090591</v>
+        <v>1.044603943864198</v>
       </c>
       <c r="L19">
-        <v>1.045982558010888</v>
+        <v>1.027618796585969</v>
       </c>
       <c r="M19">
-        <v>1.067634181087971</v>
+        <v>1.048659585869201</v>
       </c>
       <c r="N19">
-        <v>1.020691627275347</v>
+        <v>1.014585700124701</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044483406846256</v>
+        <v>1.00631413348843</v>
       </c>
       <c r="D20">
-        <v>1.053990295694397</v>
+        <v>1.029781376722327</v>
       </c>
       <c r="E20">
-        <v>1.042381792311682</v>
+        <v>1.012514319224962</v>
       </c>
       <c r="F20">
-        <v>1.064059685544326</v>
+        <v>1.033667317278359</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048941962324595</v>
+        <v>1.052990889802081</v>
       </c>
       <c r="J20">
-        <v>1.050622932251016</v>
+        <v>1.033603807127265</v>
       </c>
       <c r="K20">
-        <v>1.057302166309078</v>
+        <v>1.043320018561916</v>
       </c>
       <c r="L20">
-        <v>1.045733188295096</v>
+        <v>1.026340631663364</v>
       </c>
       <c r="M20">
-        <v>1.067338037736787</v>
+        <v>1.047142919572179</v>
       </c>
       <c r="N20">
-        <v>1.020606552070823</v>
+        <v>1.014128964054523</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043288494119787</v>
+        <v>0.999792267703937</v>
       </c>
       <c r="D21">
-        <v>1.053000725762739</v>
+        <v>1.024521533399605</v>
       </c>
       <c r="E21">
-        <v>1.041361852584103</v>
+        <v>1.007251260528864</v>
       </c>
       <c r="F21">
-        <v>1.062892197475811</v>
+        <v>1.027631597581109</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048518322891776</v>
+        <v>1.050215911447364</v>
       </c>
       <c r="J21">
-        <v>1.049822242687863</v>
+        <v>1.029298676687681</v>
       </c>
       <c r="K21">
-        <v>1.05651872206254</v>
+        <v>1.039052768154013</v>
       </c>
       <c r="L21">
-        <v>1.044922149651357</v>
+        <v>1.022096545592737</v>
       </c>
       <c r="M21">
-        <v>1.066375046772255</v>
+        <v>1.0421077319033</v>
       </c>
       <c r="N21">
-        <v>1.020329495637312</v>
+        <v>1.012610464642387</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042537328850169</v>
+        <v>0.9955810800733986</v>
       </c>
       <c r="D22">
-        <v>1.052378665192829</v>
+        <v>1.021130583708111</v>
       </c>
       <c r="E22">
-        <v>1.040721013009401</v>
+        <v>1.00386124119693</v>
       </c>
       <c r="F22">
-        <v>1.062158647306273</v>
+        <v>1.023742321157812</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048250697955976</v>
+        <v>1.048414561065981</v>
       </c>
       <c r="J22">
-        <v>1.049318328465843</v>
+        <v>1.026516456654471</v>
       </c>
       <c r="K22">
-        <v>1.056025575401216</v>
+        <v>1.036294748792937</v>
       </c>
       <c r="L22">
-        <v>1.044411978019499</v>
+        <v>1.019356592271758</v>
       </c>
       <c r="M22">
-        <v>1.065769423432875</v>
+        <v>1.038857668212974</v>
       </c>
       <c r="N22">
-        <v>1.020154940714746</v>
+        <v>1.011628700421403</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042935524155165</v>
+        <v>0.9978244032193593</v>
       </c>
       <c r="D23">
-        <v>1.052708419662497</v>
+        <v>1.022936429431216</v>
       </c>
       <c r="E23">
-        <v>1.041060692652194</v>
+        <v>1.005666308868931</v>
       </c>
       <c r="F23">
-        <v>1.062547469053389</v>
+        <v>1.025813380704825</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04839269099031</v>
+        <v>1.049375028360381</v>
       </c>
       <c r="J23">
-        <v>1.049585509249039</v>
+        <v>1.027998765349865</v>
       </c>
       <c r="K23">
-        <v>1.056287055208512</v>
+        <v>1.037764186828986</v>
       </c>
       <c r="L23">
-        <v>1.044682452291142</v>
+        <v>1.020816114433364</v>
       </c>
       <c r="M23">
-        <v>1.066090490243805</v>
+        <v>1.040588859788103</v>
       </c>
       <c r="N23">
-        <v>1.020247509520577</v>
+        <v>1.012151798863131</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044503441842266</v>
+        <v>1.00642168547847</v>
       </c>
       <c r="D24">
-        <v>1.054006887999082</v>
+        <v>1.029868198997433</v>
       </c>
       <c r="E24">
-        <v>1.042398899119718</v>
+        <v>1.012601244366164</v>
       </c>
       <c r="F24">
-        <v>1.064079267029066</v>
+        <v>1.033766979071915</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048949043232509</v>
+        <v>1.053036489914527</v>
       </c>
       <c r="J24">
-        <v>1.050636347625209</v>
+        <v>1.033674759282792</v>
       </c>
       <c r="K24">
-        <v>1.057315291282733</v>
+        <v>1.043390341089263</v>
       </c>
       <c r="L24">
-        <v>1.045746781393918</v>
+        <v>1.026410623733744</v>
       </c>
       <c r="M24">
-        <v>1.067354179808409</v>
+        <v>1.047225968789583</v>
       </c>
       <c r="N24">
-        <v>1.020611190870339</v>
+        <v>1.014153982146801</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046323473791962</v>
+        <v>1.015954670405233</v>
       </c>
       <c r="D25">
-        <v>1.055514205546683</v>
+        <v>1.037573984764983</v>
       </c>
       <c r="E25">
-        <v>1.043953704310738</v>
+        <v>1.020323088354407</v>
       </c>
       <c r="F25">
-        <v>1.065858985633248</v>
+        <v>1.042617112252189</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049589145329922</v>
+        <v>1.057054973397814</v>
       </c>
       <c r="J25">
-        <v>1.051853655765146</v>
+        <v>1.039956772992806</v>
       </c>
       <c r="K25">
-        <v>1.058506040859164</v>
+        <v>1.04961572731442</v>
       </c>
       <c r="L25">
-        <v>1.046980827385799</v>
+        <v>1.032613898627932</v>
       </c>
       <c r="M25">
-        <v>1.068819950824411</v>
+        <v>1.054588008036425</v>
       </c>
       <c r="N25">
-        <v>1.021031656826332</v>
+        <v>1.016367722366663</v>
       </c>
     </row>
   </sheetData>
